--- a/test.xlsx
+++ b/test.xlsx
@@ -1,7 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
     <sheet name="업" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="무" sheetId="2" state="visible" r:id="rId2"/>
@@ -10,6 +14,7 @@
     <sheet name="화" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,9 +54,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -198,7 +203,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -233,7 +237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,16 +271,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -399,46 +406,7 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -458,54 +426,36 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -519,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +489,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -551,60 +500,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>512</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
